--- a/StructureDefinition-ext-R5-DataRequirement.valueFilter.xlsx
+++ b/StructureDefinition-ext-R5-DataRequirement.valueFilter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-06T19:17:19.5427077+00:00</t>
+    <t>2026-02-10T04:05:33.0136333+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `DataRequirement.valueFilter` 0..* `Element`
 Following are the generation technical comments:
-Element `DataRequirement.valueFilter` is mapped to FHIR R4 structure `DataRequirement`, but has no target element specified.</t>
+Element `DataRequirement.valueFilter` is will have a context of DataRequirement based on following the parent source element upwards and mapping to `DataRequirement`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -140,7 +140,7 @@
     <t>Context</t>
   </si>
   <si>
-    <t>element:Element</t>
+    <t>element:DataRequirement</t>
   </si>
   <si>
     <t>ID</t>
@@ -342,7 +342,7 @@
   </si>
   <si>
     <t>Element `DataRequirement.valueFilter.path` is part of an existing definition because parent element `DataRequirement.valueFilter` requires a cross-version extension.
-Element `DataRequirement.valueFilter.path` is mapped to FHIR R4 structure `DataRequirement`, but has no target element specified.</t>
+Element `DataRequirement.valueFilter.path` is will have a context of DataRequirement based on following the parent source element upwards and mapping to `DataRequirement`.</t>
   </si>
   <si>
     <t>Extension.extension:path.id</t>
@@ -421,7 +421,7 @@
   </si>
   <si>
     <t>Element `DataRequirement.valueFilter.searchParam` is part of an existing definition because parent element `DataRequirement.valueFilter` requires a cross-version extension.
-Element `DataRequirement.valueFilter.searchParam` is mapped to FHIR R4 structure `DataRequirement`, but has no target element specified.</t>
+Element `DataRequirement.valueFilter.searchParam` is will have a context of DataRequirement based on following the parent source element upwards and mapping to `DataRequirement`.</t>
   </si>
   <si>
     <t>Extension.extension:searchParam.id</t>
@@ -449,7 +449,7 @@
   </si>
   <si>
     <t>Element `DataRequirement.valueFilter.comparator` is part of an existing definition because parent element `DataRequirement.valueFilter` requires a cross-version extension.
-Element `DataRequirement.valueFilter.comparator` is mapped to FHIR R4 structure `DataRequirement`, but has no target element specified.</t>
+Element `DataRequirement.valueFilter.comparator` is will have a context of DataRequirement based on following the parent source element upwards and mapping to `DataRequirement`.</t>
   </si>
   <si>
     <t>Extension.extension:comparator.id</t>
@@ -481,7 +481,7 @@
   </si>
   <si>
     <t>Element `DataRequirement.valueFilter.value[x]` is part of an existing definition because parent element `DataRequirement.valueFilter` requires a cross-version extension.
-Element `DataRequirement.valueFilter.value[x]` is mapped to FHIR R4 structure `DataRequirement`, but has no target element specified.</t>
+Element `DataRequirement.valueFilter.value[x]` is will have a context of DataRequirement based on following the parent source element upwards and mapping to `DataRequirement`.</t>
   </si>
   <si>
     <t>Extension.extension:value.id</t>
@@ -847,7 +847,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="141.08203125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="151.4609375" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-ext-R5-DataRequirement.valueFilter.xlsx
+++ b/StructureDefinition-ext-R5-DataRequirement.valueFilter.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="161">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-10T04:05:33.0136333+00:00</t>
+    <t>2026-02-17T20:42:20.5370068+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -98,7 +98,7 @@
 Across FHIR versions, the element set has been mapped as:
 *  R5: `DataRequirement.valueFilter` 0..* `Element`
 Following are the generation technical comments:
-Element `DataRequirement.valueFilter` is will have a context of DataRequirement based on following the parent source element upwards and mapping to `DataRequirement`.</t>
+Element `DataRequirement.valueFilter` has a context of DataRequirement based on following the parent source element upwards and mapping to `DataRequirement`.</t>
   </si>
   <si>
     <t>Copyright</t>
@@ -342,7 +342,7 @@
   </si>
   <si>
     <t>Element `DataRequirement.valueFilter.path` is part of an existing definition because parent element `DataRequirement.valueFilter` requires a cross-version extension.
-Element `DataRequirement.valueFilter.path` is will have a context of DataRequirement based on following the parent source element upwards and mapping to `DataRequirement`.</t>
+Element `DataRequirement.valueFilter.path` has a context of DataRequirement based on following the parent source element upwards and mapping to `DataRequirement`.</t>
   </si>
   <si>
     <t>Extension.extension:path.id</t>
@@ -389,6 +389,9 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DataRequirement.valueFilter.path</t>
+  </si>
+  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -421,7 +424,7 @@
   </si>
   <si>
     <t>Element `DataRequirement.valueFilter.searchParam` is part of an existing definition because parent element `DataRequirement.valueFilter` requires a cross-version extension.
-Element `DataRequirement.valueFilter.searchParam` is will have a context of DataRequirement based on following the parent source element upwards and mapping to `DataRequirement`.</t>
+Element `DataRequirement.valueFilter.searchParam` has a context of DataRequirement based on following the parent source element upwards and mapping to `DataRequirement`.</t>
   </si>
   <si>
     <t>Extension.extension:searchParam.id</t>
@@ -433,6 +436,9 @@
     <t>Extension.extension:searchParam.url</t>
   </si>
   <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DataRequirement.valueFilter.searchParam</t>
+  </si>
+  <si>
     <t>Extension.extension:searchParam.value[x]</t>
   </si>
   <si>
@@ -449,7 +455,7 @@
   </si>
   <si>
     <t>Element `DataRequirement.valueFilter.comparator` is part of an existing definition because parent element `DataRequirement.valueFilter` requires a cross-version extension.
-Element `DataRequirement.valueFilter.comparator` is will have a context of DataRequirement based on following the parent source element upwards and mapping to `DataRequirement`.</t>
+Element `DataRequirement.valueFilter.comparator` has a context of DataRequirement based on following the parent source element upwards and mapping to `DataRequirement`.</t>
   </si>
   <si>
     <t>Extension.extension:comparator.id</t>
@@ -459,6 +465,9 @@
   </si>
   <si>
     <t>Extension.extension:comparator.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DataRequirement.valueFilter.comparator</t>
   </si>
   <si>
     <t>Extension.extension:comparator.value[x]</t>
@@ -481,7 +490,7 @@
   </si>
   <si>
     <t>Element `DataRequirement.valueFilter.value[x]` is part of an existing definition because parent element `DataRequirement.valueFilter` requires a cross-version extension.
-Element `DataRequirement.valueFilter.value[x]` is will have a context of DataRequirement based on following the parent source element upwards and mapping to `DataRequirement`.</t>
+Element `DataRequirement.valueFilter.value[x]` has a context of DataRequirement based on following the parent source element upwards and mapping to `DataRequirement`.</t>
   </si>
   <si>
     <t>Extension.extension:value.id</t>
@@ -491,6 +500,9 @@
   </si>
   <si>
     <t>Extension.extension:value.url</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DataRequirement.valueFilter.value</t>
   </si>
   <si>
     <t>Extension.extension:value.value[x]</t>
@@ -847,7 +859,7 @@
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="151.4609375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="145.4765625" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
@@ -1655,7 +1667,7 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
-        <v>100</v>
+        <v>119</v>
       </c>
       <c r="S8" t="s" s="2">
         <v>77</v>
@@ -1697,7 +1709,7 @@
         <v>77</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>86</v>
@@ -1712,15 +1724,15 @@
         <v>77</v>
       </c>
       <c r="AK8" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1802,7 +1814,7 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>78</v>
@@ -1814,21 +1826,21 @@
         <v>77</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK9" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1853,14 +1865,14 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1929,7 +1941,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>106</v>
@@ -2032,7 +2044,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>108</v>
@@ -2137,7 +2149,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>114</v>
@@ -2180,7 +2192,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2222,7 +2234,7 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>86</v>
@@ -2237,15 +2249,15 @@
         <v>77</v>
       </c>
       <c r="AK13" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2271,10 +2283,10 @@
         <v>87</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2325,7 +2337,7 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>78</v>
@@ -2337,21 +2349,21 @@
         <v>77</v>
       </c>
       <c r="AJ14" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2376,14 +2388,14 @@
         <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2452,7 +2464,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>106</v>
@@ -2555,7 +2567,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>108</v>
@@ -2660,7 +2672,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>114</v>
@@ -2703,7 +2715,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>135</v>
+        <v>144</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2745,7 +2757,7 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>86</v>
@@ -2760,15 +2772,15 @@
         <v>77</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2791,13 +2803,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2848,7 +2860,7 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>78</v>
@@ -2860,21 +2872,21 @@
         <v>77</v>
       </c>
       <c r="AJ19" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="2">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="B20" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C20" t="s" s="2">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D20" t="s" s="2">
         <v>77</v>
@@ -2899,14 +2911,14 @@
         <v>93</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>77</v>
@@ -2975,7 +2987,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="B21" t="s" s="2">
         <v>106</v>
@@ -3078,7 +3090,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="2">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="B22" t="s" s="2">
         <v>108</v>
@@ -3183,7 +3195,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="B23" t="s" s="2">
         <v>114</v>
@@ -3226,7 +3238,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>145</v>
+        <v>155</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3268,7 +3280,7 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>86</v>
@@ -3283,15 +3295,15 @@
         <v>77</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3314,13 +3326,13 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3371,7 +3383,7 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>78</v>
@@ -3383,18 +3395,18 @@
         <v>77</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3476,7 +3488,7 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>86</v>
@@ -3491,15 +3503,15 @@
         <v>77</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3522,13 +3534,13 @@
         <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -3579,7 +3591,7 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>78</v>
@@ -3591,10 +3603,10 @@
         <v>77</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>120</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>

--- a/StructureDefinition-ext-R5-DataRequirement.valueFilter.xlsx
+++ b/StructureDefinition-ext-R5-DataRequirement.valueFilter.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-17T20:42:20.5370068+00:00</t>
+    <t>2026-02-20T17:59:09.1776521+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
   </si>
   <si>
     <t>Abstract</t>

--- a/StructureDefinition-ext-R5-DataRequirement.valueFilter.xlsx
+++ b/StructureDefinition-ext-R5-DataRequirement.valueFilter.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="160">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-20T17:59:09.1776521+00:00</t>
+    <t>2026-02-21T19:36:42.9229177+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -125,7 +125,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/StructureDefinition/Extension</t>
+    <t>http://hl7.org/fhir/StructureDefinition/Extension|4.0.1</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -341,8 +341,7 @@
     <t>The path attribute contains a [Simple FHIR Subset](https://hl7.org/fhir/fhirpat.html#simple) that allows path traversal, but not calculation.</t>
   </si>
   <si>
-    <t>Element `DataRequirement.valueFilter.path` is part of an existing definition because parent element `DataRequirement.valueFilter` requires a cross-version extension.
-Element `DataRequirement.valueFilter.path` has a context of DataRequirement based on following the parent source element upwards and mapping to `DataRequirement`.</t>
+    <t>Element `DataRequirement.valueFilter.path` has a context of DataRequirement based on following the parent source element upwards and mapping to `DataRequirement`.</t>
   </si>
   <si>
     <t>Extension.extension:path.id</t>
@@ -389,9 +388,6 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DataRequirement.valueFilter.path</t>
-  </si>
-  <si>
     <t>Extension.url</t>
   </si>
   <si>
@@ -423,8 +419,7 @@
     <t>A search parameter defined on the specified type of the DataRequirement, and which searches on elements of a type compatible with the type of the valueFilter.value[x] for the filter.</t>
   </si>
   <si>
-    <t>Element `DataRequirement.valueFilter.searchParam` is part of an existing definition because parent element `DataRequirement.valueFilter` requires a cross-version extension.
-Element `DataRequirement.valueFilter.searchParam` has a context of DataRequirement based on following the parent source element upwards and mapping to `DataRequirement`.</t>
+    <t>Element `DataRequirement.valueFilter.searchParam` has a context of DataRequirement based on following the parent source element upwards and mapping to `DataRequirement`.</t>
   </si>
   <si>
     <t>Extension.extension:searchParam.id</t>
@@ -436,9 +431,6 @@
     <t>Extension.extension:searchParam.url</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DataRequirement.valueFilter.searchParam</t>
-  </si>
-  <si>
     <t>Extension.extension:searchParam.value[x]</t>
   </si>
   <si>
@@ -454,8 +446,7 @@
     <t>The comparator to be used to determine whether the value is matching.</t>
   </si>
   <si>
-    <t>Element `DataRequirement.valueFilter.comparator` is part of an existing definition because parent element `DataRequirement.valueFilter` requires a cross-version extension.
-Element `DataRequirement.valueFilter.comparator` has a context of DataRequirement based on following the parent source element upwards and mapping to `DataRequirement`.</t>
+    <t>Element `DataRequirement.valueFilter.comparator` has a context of DataRequirement based on following the parent source element upwards and mapping to `DataRequirement`.</t>
   </si>
   <si>
     <t>Extension.extension:comparator.id</t>
@@ -465,9 +456,6 @@
   </si>
   <si>
     <t>Extension.extension:comparator.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DataRequirement.valueFilter.comparator</t>
   </si>
   <si>
     <t>Extension.extension:comparator.value[x]</t>
@@ -477,6 +465,15 @@
 </t>
   </si>
   <si>
+    <t>required</t>
+  </si>
+  <si>
+    <t>Possible comparators for the valueFilter element.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/uv/xver/ValueSet/R5-value-filter-comparator-for-R4|0.0.1-snapshot-3</t>
+  </si>
+  <si>
     <t>Extension.extension:value</t>
   </si>
   <si>
@@ -489,8 +486,7 @@
     <t>The value of the filter.</t>
   </si>
   <si>
-    <t>Element `DataRequirement.valueFilter.value[x]` is part of an existing definition because parent element `DataRequirement.valueFilter` requires a cross-version extension.
-Element `DataRequirement.valueFilter.value[x]` has a context of DataRequirement based on following the parent source element upwards and mapping to `DataRequirement`.</t>
+    <t>Element `DataRequirement.valueFilter.value[x]` has a context of DataRequirement based on following the parent source element upwards and mapping to `DataRequirement`.</t>
   </si>
   <si>
     <t>Extension.extension:value.id</t>
@@ -500,9 +496,6 @@
   </si>
   <si>
     <t>Extension.extension:value.url</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/5.0/StructureDefinition/extension-DataRequirement.valueFilter.value</t>
   </si>
   <si>
     <t>Extension.extension:value.value[x]</t>
@@ -869,8 +862,8 @@
     <col min="22" max="22" width="14.4296875" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="15.31640625" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="14.62890625" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="16.9609375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="15.3125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="40.54296875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="72.546875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.10546875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="17.6953125" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="35.90625" customWidth="true" bestFit="true"/>
@@ -1667,72 +1660,72 @@
       </c>
       <c r="Q8" s="2"/>
       <c r="R8" t="s" s="2">
+        <v>100</v>
+      </c>
+      <c r="S8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="T8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="U8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="V8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="W8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="X8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Y8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="Z8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AA8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AB8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AC8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AD8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AE8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AF8" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="S8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="T8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="U8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="V8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="W8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="X8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Y8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="Z8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AA8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AB8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AC8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AD8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AE8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF8" t="s" s="2">
+      <c r="AG8" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH8" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ8" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK8" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AG8" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH8" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ8" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK8" t="s" s="2">
-        <v>121</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="B9" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="B9" t="s" s="2">
-        <v>123</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1814,33 +1807,33 @@
         <v>77</v>
       </c>
       <c r="AF9" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG9" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH9" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI9" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ9" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG9" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH9" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI9" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ9" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK9" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B10" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C10" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="D10" t="s" s="2">
         <v>77</v>
@@ -1865,14 +1858,14 @@
         <v>93</v>
       </c>
       <c r="L10" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="P10" t="s" s="2">
         <v>77</v>
@@ -1941,7 +1934,7 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="2">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B11" t="s" s="2">
         <v>106</v>
@@ -2044,7 +2037,7 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="2">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B12" t="s" s="2">
         <v>108</v>
@@ -2149,7 +2142,7 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B13" t="s" s="2">
         <v>114</v>
@@ -2192,7 +2185,7 @@
       </c>
       <c r="Q13" s="2"/>
       <c r="R13" t="s" s="2">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="S13" t="s" s="2">
         <v>77</v>
@@ -2234,30 +2227,30 @@
         <v>77</v>
       </c>
       <c r="AF13" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG13" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH13" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ13" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AG13" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH13" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ13" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK13" t="s" s="2">
-        <v>121</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -2283,10 +2276,10 @@
         <v>87</v>
       </c>
       <c r="L14" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="M14" t="s" s="2">
         <v>128</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>129</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -2337,33 +2330,33 @@
         <v>77</v>
       </c>
       <c r="AF14" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG14" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK14" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B15" t="s" s="2">
         <v>92</v>
       </c>
       <c r="C15" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D15" t="s" s="2">
         <v>77</v>
@@ -2388,14 +2381,14 @@
         <v>93</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N15" s="2"/>
       <c r="O15" t="s" s="2">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>77</v>
@@ -2464,7 +2457,7 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B16" t="s" s="2">
         <v>106</v>
@@ -2567,7 +2560,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B17" t="s" s="2">
         <v>108</v>
@@ -2672,7 +2665,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B18" t="s" s="2">
         <v>114</v>
@@ -2715,7 +2708,7 @@
       </c>
       <c r="Q18" s="2"/>
       <c r="R18" t="s" s="2">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="S18" t="s" s="2">
         <v>77</v>
@@ -2757,30 +2750,30 @@
         <v>77</v>
       </c>
       <c r="AF18" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG18" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH18" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ18" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK18" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AG18" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH18" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ18" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK18" t="s" s="2">
-        <v>121</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -2803,13 +2796,13 @@
         <v>77</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -2836,13 +2829,13 @@
         <v>77</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="Y19" t="s" s="2">
-        <v>77</v>
+        <v>145</v>
       </c>
       <c r="Z19" t="s" s="2">
-        <v>77</v>
+        <v>146</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>77</v>
@@ -2860,22 +2853,22 @@
         <v>77</v>
       </c>
       <c r="AF19" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG19" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK19" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="20">
@@ -3238,7 +3231,7 @@
       </c>
       <c r="Q23" s="2"/>
       <c r="R23" t="s" s="2">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="S23" t="s" s="2">
         <v>77</v>
@@ -3280,30 +3273,30 @@
         <v>77</v>
       </c>
       <c r="AF23" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG23" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH23" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ23" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK23" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AG23" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH23" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ23" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK23" t="s" s="2">
-        <v>121</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3326,7 +3319,7 @@
         <v>77</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="L24" t="s" s="2">
         <v>149</v>
@@ -3383,30 +3376,30 @@
         <v>77</v>
       </c>
       <c r="AF24" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG24" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH24" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI24" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ24" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG24" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH24" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI24" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ24" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK24" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3488,30 +3481,30 @@
         <v>77</v>
       </c>
       <c r="AF25" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AG25" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AH25" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ25" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AK25" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AG25" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH25" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ25" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AK25" t="s" s="2">
-        <v>121</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -3534,13 +3527,13 @@
         <v>77</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="L26" t="s" s="2">
+      <c r="M26" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="N26" s="2"/>
       <c r="O26" s="2"/>
@@ -3591,22 +3584,22 @@
         <v>77</v>
       </c>
       <c r="AF26" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="AG26" t="s" s="2">
+        <v>78</v>
+      </c>
+      <c r="AH26" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="AI26" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AJ26" t="s" s="2">
         <v>124</v>
       </c>
-      <c r="AG26" t="s" s="2">
-        <v>78</v>
-      </c>
-      <c r="AH26" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AI26" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AJ26" t="s" s="2">
-        <v>125</v>
-      </c>
       <c r="AK26" t="s" s="2">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
   </sheetData>
